--- a/Git_Push_Tracker/Git_Tracker_Excel.xlsx
+++ b/Git_Push_Tracker/Git_Tracker_Excel.xlsx
@@ -362,10 +362,13 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="32.3"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -394,34 +397,34 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
